--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,12 +49,6 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -67,100 +58,100 @@
     <t>negative</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -526,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5787671232876712</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,31 +696,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>123</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L5">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>42</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>0.9375</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7272727272727273</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C6">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -787,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,195 +796,123 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L7">
+        <v>23</v>
+      </c>
+      <c r="M7">
+        <v>23</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8303571428571429</v>
+      </c>
+      <c r="L9">
+        <v>93</v>
+      </c>
+      <c r="M9">
+        <v>93</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L7">
-        <v>22</v>
-      </c>
-      <c r="M7">
-        <v>22</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>49</v>
-      </c>
-      <c r="M8">
-        <v>49</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
+      <c r="K10">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L10">
+        <v>68</v>
+      </c>
+      <c r="M10">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3004291845493562</v>
-      </c>
-      <c r="C9">
-        <v>70</v>
-      </c>
-      <c r="D9">
-        <v>70</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>163</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>67</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L10">
-        <v>44</v>
-      </c>
-      <c r="M10">
-        <v>44</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1031,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.726027397260274</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1057,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7241379310344828</v>
+        <v>0.7421875</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1083,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1109,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1135,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1161,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6551724137931034</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1187,47 +1106,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>0.6886792452830188</v>
+      </c>
+      <c r="L19">
+        <v>73</v>
+      </c>
+      <c r="M19">
+        <v>73</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>33</v>
-      </c>
-      <c r="K19">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>11</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1239,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6153846153846154</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1265,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1291,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5666666666666667</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1317,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1343,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.55</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1369,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5263157894736842</v>
+        <v>0.4830287206266319</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1395,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5211267605633803</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L27">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="M27">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1421,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>102</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4930555555555556</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L28">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1447,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4571428571428571</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1473,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4545454545454545</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1499,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4108527131782946</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L31">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1525,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3928571428571428</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1551,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3243243243243243</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1577,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.3043478260869565</v>
+        <v>0.02125279642058166</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1603,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>64</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -58,60 +58,63 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -133,25 +136,28 @@
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9545454545454546</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6111111111111112</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5787671232876712</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1782945736434109</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -778,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1587301587301587</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +834,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -846,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,13 +860,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8303571428571429</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -872,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -880,13 +886,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -906,13 +912,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7833333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -932,13 +938,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -958,13 +964,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -984,13 +990,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7421875</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1002,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1010,13 +1016,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7254901960784313</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1028,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1036,13 +1042,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1054,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1062,13 +1068,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.71875</v>
+        <v>0.725</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1080,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1088,13 +1094,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6901408450704225</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1106,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1114,13 +1120,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6886792452830188</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L19">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M19">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1132,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1140,13 +1146,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1158,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1166,13 +1172,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6507936507936508</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1184,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1192,13 +1198,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5957446808510638</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L22">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1210,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1218,13 +1224,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5600000000000001</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1236,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1244,13 +1250,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5319148936170213</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1262,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1270,13 +1276,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5208333333333334</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1288,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1296,13 +1302,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4830287206266319</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L26">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1314,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>198</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1322,13 +1328,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4529411764705882</v>
+        <v>0.4699738903394256</v>
       </c>
       <c r="L27">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="M27">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1340,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1348,13 +1354,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4382022471910113</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1366,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1374,13 +1380,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.423728813559322</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L29">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1392,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>170</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1400,13 +1406,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.358974358974359</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1418,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1426,25 +1432,25 @@
         <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3561643835616438</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L31">
+        <v>19</v>
+      </c>
+      <c r="M31">
+        <v>19</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>26</v>
-      </c>
-      <c r="M31">
-        <v>26</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1452,13 +1458,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3389121338912134</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="M32">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1470,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1478,13 +1484,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3230769230769231</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1504,25 +1510,77 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.02125279642058166</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L34">
+        <v>89</v>
+      </c>
+      <c r="M34">
+        <v>89</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L35">
+        <v>28</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>0.296875</v>
+      </c>
+      <c r="L36">
         <v>19</v>
       </c>
-      <c r="M34">
+      <c r="M36">
         <v>19</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>875</v>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
